--- a/Data/Jihong/DPV Analysis/Analysis Files/aptamer_sensor_3.xlsx
+++ b/Data/Jihong/DPV Analysis/Analysis Files/aptamer_sensor_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,12 +433,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="20" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="24" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="24" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="35" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="20" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -477,163 +477,155 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.004</v>
+        <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.06952666666666679</v>
+        <v>-0.08926407142857161</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.06952666666666676</v>
+        <v>-0.0892640714285716</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.775557561562891e-17</v>
+        <v>-1.387778780781446e-17</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.112</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.04265928023598808</v>
+        <v>-0.02805895398608867</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.1016315238095238</v>
+        <v>-0.1020021666666668</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.06995031226295838</v>
+        <v>-0.08958018994114517</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.03168121154656545</v>
+        <v>-0.01242197672552162</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.224</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.03165268141592917</v>
+        <v>-0.6715980165864103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.1130332380952381</v>
+        <v>-0.111904380952381</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.07037395785924999</v>
+        <v>-0.08989630845371872</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.04265928023598808</v>
+        <v>-0.02200807249866228</v>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.324</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-0.03730628318584059</v>
+        <v>-0.02043114901016582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.1116664761904761</v>
+        <v>-0.118271380952381</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.07079760345554161</v>
+        <v>-0.09021242696629229</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.04086887273493454</v>
+        <v>-0.02805895398608867</v>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.372</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>-0.6778345874420566</v>
+        <v>0.004222511235955059</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.1093334285714286</v>
+        <v>-0.1182696190476191</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.07122124905183322</v>
+        <v>-0.09052854547886587</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.03811217951959534</v>
+        <v>-0.0277410735687532</v>
       </c>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.42</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>-0.02397954277286138</v>
+        <v>-0.01991516185125741</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.1061354761904762</v>
+        <v>-0.1156028571428572</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.07164489464812483</v>
+        <v>-0.09084466399143944</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.03449058154235136</v>
-      </c>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="n">
-        <v>-0.372</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0.001964442477876083</v>
-      </c>
+        <v>-0.02475819315141776</v>
+      </c>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.028</v>
+        <v>-0.124</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.105466761904762</v>
+        <v>-0.1136689523809525</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.07206854024441645</v>
+        <v>-0.09116078250401299</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.03339822166034551</v>
-      </c>
-      <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>-0.02088290560471981</v>
-      </c>
+        <v>-0.02250816987693947</v>
+      </c>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0.128</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.1022697619047619</v>
+        <v>-0.1140668095238096</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.07249218584070806</v>
+        <v>-0.09147690101658656</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.02977757606405389</v>
+        <v>-0.02258990850722306</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -641,16 +633,16 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.1046720952380953</v>
+        <v>-0.1148624761904763</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.07291583143699967</v>
+        <v>-0.09179301952916014</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.03175626380109559</v>
+        <v>-0.02306945666131617</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -658,16 +650,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.04000000000000001</v>
+        <v>-0.136</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.101601380952381</v>
+        <v>-0.1202615238095239</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.07333947703329129</v>
+        <v>-0.09210913804173371</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.02826190391908971</v>
+        <v>-0.02815238576779019</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -675,16 +667,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.1034637142857143</v>
+        <v>-0.126458761904762</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.0737631226295829</v>
+        <v>-0.09242525655430726</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.02970059165613144</v>
+        <v>-0.0340335053504547</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -692,16 +684,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.048</v>
+        <v>-0.144</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.1045311428571429</v>
+        <v>-0.1282588095238096</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.0741867682258745</v>
+        <v>-0.09274137506688084</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.03034437463126841</v>
+        <v>-0.03551743445692875</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -709,16 +701,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.148</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.1062630952380953</v>
+        <v>-0.1355279047619048</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.07461041382216611</v>
+        <v>-0.09305749357945441</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.03165268141592917</v>
+        <v>-0.04247041118245042</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -726,16 +718,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.05600000000000001</v>
+        <v>-0.152</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.1030682857142857</v>
+        <v>-0.1464647142857144</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.07503405941845773</v>
+        <v>-0.09337361209202796</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.02803422629582801</v>
+        <v>-0.0530911021936864</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -743,16 +735,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.156</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.09787252380952383</v>
+        <v>-0.1632645238095239</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.07545770501474934</v>
+        <v>-0.09368973060460153</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.02241481879477449</v>
+        <v>-0.06957479320492235</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -760,16 +752,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.09833728571428574</v>
+        <v>-0.1771995238095239</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.07588135061104095</v>
+        <v>-0.09400584911717511</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.02245593510324478</v>
+        <v>-0.08319367469234881</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -777,16 +769,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.164</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.1058692857142857</v>
+        <v>-0.1933952857142858</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.07630499620733257</v>
+        <v>-0.09432196762974868</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.02956428950695315</v>
+        <v>-0.09907331808453715</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -794,16 +786,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.07200000000000001</v>
+        <v>-0.168</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.1082664285714286</v>
+        <v>-0.2105980476190477</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.07672864180362418</v>
+        <v>-0.09463808614232225</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.03153778676780443</v>
+        <v>-0.1159599614767255</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -811,16 +803,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.07600000000000001</v>
+        <v>-0.172</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.1101300000000001</v>
+        <v>-0.236732142857143</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.07715228739991579</v>
+        <v>-0.0949542046548958</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.03297771260008427</v>
+        <v>-0.1417779382022472</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -828,16 +820,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.08</v>
+        <v>-0.176</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.1043303333333334</v>
+        <v>-0.2707310952380955</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.07757593299620741</v>
+        <v>-0.09527032316746938</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.02675440033712596</v>
+        <v>-0.1754607720706261</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -845,16 +837,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.09412733333333334</v>
+        <v>-0.312396285714286</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.07799957859249902</v>
+        <v>-0.09558644168004295</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.01612775474083432</v>
+        <v>-0.216809844034243</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -862,16 +854,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.08800000000000001</v>
+        <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.09785685714285716</v>
+        <v>-0.3563292380952384</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.07842322418879064</v>
+        <v>-0.09590256019261652</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.01943363295406653</v>
+        <v>-0.2604266779026219</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -879,16 +871,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.1014562380952381</v>
+        <v>-0.3991283809523812</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.07884686978508225</v>
+        <v>-0.09621867870519007</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.02260936831015585</v>
+        <v>-0.3029097022471912</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -896,16 +888,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.096</v>
+        <v>-0.192</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.1010588571428572</v>
+        <v>-0.451464285714286</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.07927051538137386</v>
+        <v>-0.09653479721776365</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.0217883417614833</v>
+        <v>-0.3549294884965223</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -913,16 +905,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.196</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.1033962857142857</v>
+        <v>-0.4994625238095242</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.07969416097766548</v>
+        <v>-0.09685091573033722</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.02370212473662027</v>
+        <v>-0.4026116080791869</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -930,16 +922,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.1040678095238095</v>
+        <v>-0.5445284761904765</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.08011780657395709</v>
+        <v>-0.09716703424291079</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.02395000294985244</v>
+        <v>-0.4473614419475657</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -947,16 +939,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.204</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.107003619047619</v>
+        <v>-0.5890645238095241</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.0805414521702487</v>
+        <v>-0.09748315275548436</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.02646216687737031</v>
+        <v>-0.4915813710540398</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -964,16 +956,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.1182713809523809</v>
+        <v>-0.6361998571428575</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.08096509776654032</v>
+        <v>-0.09779927126805792</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.03730628318584059</v>
+        <v>-0.5384005858747997</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -981,16 +973,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.118269619047619</v>
+        <v>-0.680797666666667</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.08138874336283193</v>
+        <v>-0.09811538978063149</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.03688087568478708</v>
+        <v>-0.5826822768860355</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -998,16 +990,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.216</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.1156028571428571</v>
+        <v>-0.7260660000000003</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.08181238895912354</v>
+        <v>-0.09843150829320504</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.0337904681837336</v>
+        <v>-0.6276344917067953</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1015,16 +1007,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.1136689523809524</v>
+        <v>-0.7579263809523815</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.08223603455541516</v>
+        <v>-0.09874762680577862</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.03143291782553724</v>
+        <v>-0.6591787541466029</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1032,16 +1024,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.1140668095238096</v>
+        <v>-0.7706617619047624</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.08265968015170677</v>
+        <v>-0.09906374531835219</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.03140712937210278</v>
+        <v>-0.6715980165864103</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1049,16 +1041,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.228</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.1148624761904762</v>
+        <v>-0.7704625238095244</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.08308332574799838</v>
+        <v>-0.09937986383092576</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.03177915044247785</v>
+        <v>-0.6710826599785986</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1066,16 +1058,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.232</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.1202615238095238</v>
+        <v>-0.756065571428572</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.08350697134429</v>
+        <v>-0.09969598234349933</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.03675455246523383</v>
+        <v>-0.6563695890850727</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1083,16 +1075,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.236</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.1264587619047619</v>
+        <v>-0.7235935238095242</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.0839306169405816</v>
+        <v>-0.1000121008560729</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.04252814496418031</v>
+        <v>-0.6235814229534513</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1100,16 +1092,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.1282588095238095</v>
+        <v>-0.6830002857142859</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.08435426253687323</v>
+        <v>-0.1003282193686465</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.0439045469869363</v>
+        <v>-0.5826720663456395</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1117,16 +1109,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.244</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.1355279047619047</v>
+        <v>-0.6333991904761908</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.08477790813316483</v>
+        <v>-0.10064433788122</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.05074999662873991</v>
+        <v>-0.5327548525949707</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1134,16 +1126,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.1464647142857143</v>
+        <v>-0.5836040952380956</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.08520155372945644</v>
+        <v>-0.1009604563937936</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.06126316055625784</v>
+        <v>-0.4826436388443021</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1151,16 +1143,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.1632645238095238</v>
+        <v>-0.5355389523809526</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.08562519932574805</v>
+        <v>-0.1012765749063672</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.07763932448377575</v>
+        <v>-0.4342623774745855</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1168,16 +1160,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.256</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.1771995238095238</v>
+        <v>-0.4860741428571431</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.08604884492203967</v>
+        <v>-0.1015926934189407</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.09115067888748414</v>
+        <v>-0.3844814494382024</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1185,16 +1177,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.26</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.1933952857142857</v>
+        <v>-0.4298663333333336</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.08647249051833128</v>
+        <v>-0.1019088119315143</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.1069227951959545</v>
+        <v>-0.3279575214018193</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1202,16 +1194,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.2105980476190476</v>
+        <v>-0.3659971904761907</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.08689613611462289</v>
+        <v>-0.1022249304440879</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.1237019115044247</v>
+        <v>-0.2637722600321029</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1219,16 +1211,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.2367321428571429</v>
+        <v>-0.3069236190476193</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.08731978171091451</v>
+        <v>-0.1025410489566614</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.1494123611462284</v>
+        <v>-0.2043825700909578</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1236,16 +1228,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.2707310952380953</v>
+        <v>-0.2611902857142859</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.08774342730720612</v>
+        <v>-0.102857167469235</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.1829876679308892</v>
+        <v>-0.1583331182450509</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1253,16 +1245,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.276</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.3123962857142858</v>
+        <v>-0.2344612380952382</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.08816707290349773</v>
+        <v>-0.1031732859818086</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.2242292128107881</v>
+        <v>-0.1312879521134296</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1270,16 +1262,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.28</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.3563292380952382</v>
+        <v>-0.2120685238095239</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.08859071849978935</v>
+        <v>-0.1034894044943821</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.2677385195954489</v>
+        <v>-0.1085791193151418</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1287,16 +1279,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.399128380952381</v>
+        <v>-0.1946016666666668</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.08901436409608096</v>
+        <v>-0.1038055230069557</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.3101140168563</v>
+        <v>-0.09079614365971106</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1304,16 +1296,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.288</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.4514642857142858</v>
+        <v>-0.1732016666666668</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.08943800969237257</v>
+        <v>-0.1041216415195293</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.3620262760219132</v>
+        <v>-0.06908002514713751</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1321,16 +1313,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.292</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.4994625238095239</v>
+        <v>-0.1597310000000001</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.08986165528866419</v>
+        <v>-0.1044377600321028</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.4096008685208598</v>
+        <v>-0.05529323996789728</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1338,16 +1330,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.296</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.5445284761904763</v>
+        <v>-0.1433953809523811</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.0902853008849558</v>
+        <v>-0.1047538785446764</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.4542431753055205</v>
+        <v>-0.03864150240770464</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1355,16 +1347,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.3</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.5890645238095239</v>
+        <v>-0.1415306666666668</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.09070894648124742</v>
+        <v>-0.10506999705725</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.4983555773282765</v>
+        <v>-0.03646066960941681</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1372,16 +1364,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.304</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.6361998571428571</v>
+        <v>-0.1252662857142858</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.09113259207753903</v>
+        <v>-0.1053861155698235</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.5450672650653181</v>
+        <v>-0.01988017014446226</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1389,16 +1381,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.308</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.6807976666666666</v>
+        <v>-0.1212656666666667</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.09155623767383064</v>
+        <v>-0.1057022340823971</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.589241428992836</v>
+        <v>-0.01556343258426961</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1406,16 +1398,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.312</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.7260660000000001</v>
+        <v>-0.1191340476190477</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.09197988327012224</v>
+        <v>-0.1060183525949707</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.6340861167298779</v>
+        <v>-0.01311569502407701</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1423,16 +1415,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.316</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.7579263809523811</v>
+        <v>-0.1226648571428572</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.09240352886641387</v>
+        <v>-0.1063344711075442</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.6655228520859672</v>
+        <v>-0.01633038603531295</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1440,16 +1432,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.32</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.7706617619047621</v>
+        <v>-0.1260630952380953</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.09282717446270547</v>
+        <v>-0.1066505896201178</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.6778345874420566</v>
+        <v>-0.0194125056179775</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1457,16 +1449,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.324</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.770462523809524</v>
+        <v>-0.1273978571428572</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.0932508200589971</v>
+        <v>-0.1069667081326914</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.6772117037505269</v>
+        <v>-0.02043114901016582</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1474,16 +1466,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.328</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.7560655714285716</v>
+        <v>-0.1197292857142858</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.0936744656552887</v>
+        <v>-0.107282826645265</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.6623911057732829</v>
+        <v>-0.01244645906902085</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1491,16 +1483,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.332</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.7235935238095239</v>
+        <v>-0.1140631428571429</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.09409811125158032</v>
+        <v>-0.1075989451578385</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.6294954125579436</v>
+        <v>-0.006464197699304425</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1508,16 +1500,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.6830002857142856</v>
+        <v>-0.106863380952381</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.09452175684787192</v>
+        <v>-0.1079150636704121</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.5884785288664137</v>
+        <v>0.001051682718031036</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1525,16 +1517,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.34</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.6333991904761904</v>
+        <v>-0.1021295714285715</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.09494540244416354</v>
+        <v>-0.1082311821829856</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.5384537880320269</v>
+        <v>0.006101610754414136</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1542,16 +1534,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.344</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.5836040952380953</v>
+        <v>-0.1076669047619049</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.09536904804045515</v>
+        <v>-0.1085473006955592</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.4882350471976402</v>
+        <v>0.0008803959336543682</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1559,16 +1551,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.5355389523809524</v>
+        <v>-0.1096015238095239</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.09579269363674676</v>
+        <v>-0.1088634192081328</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.4397462587442056</v>
+        <v>-0.0007381046013911069</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1576,16 +1568,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.352</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.4860741428571429</v>
+        <v>-0.1114005238095239</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.09621633923303838</v>
+        <v>-0.1091795377207063</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.3898578036241045</v>
+        <v>-0.002220986088817517</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1593,16 +1585,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.356</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.4298663333333334</v>
+        <v>-0.1093331904761905</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.09663998482932999</v>
+        <v>-0.1094956562332799</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.3332263485040034</v>
+        <v>0.0001624657570894195</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1610,16 +1602,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.3659971904761906</v>
+        <v>-0.1094641428571429</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.09706363042562161</v>
+        <v>-0.1098117747458535</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.268933560050569</v>
+        <v>0.0003476318887105923</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1627,16 +1619,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.364</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.3069236190476191</v>
+        <v>-0.1039328571428572</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.09748727602191322</v>
+        <v>-0.1101278932584271</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.2094363430257059</v>
+        <v>0.006195036115569846</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1644,16 +1636,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.2611902857142857</v>
+        <v>-0.1031344285714287</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.09791092161820483</v>
+        <v>-0.1104440117710006</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.1632793640960809</v>
+        <v>0.007309583199571965</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1661,16 +1653,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.372</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.2344612380952381</v>
+        <v>-0.1065376190476191</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.09833456721449645</v>
+        <v>-0.1107601302835742</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.1361266708807417</v>
+        <v>0.004222511235955059</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1678,16 +1670,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.376</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.2120685238095238</v>
+        <v>-0.09960152380952386</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.09875821281078806</v>
+        <v>-0.1110762487961478</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.1133103109987357</v>
+        <v>0.0114747249866239</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1695,16 +1687,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.1946016666666666</v>
+        <v>-0.09973004761904766</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.09918185840707967</v>
+        <v>-0.1113923673087213</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.09541980825958697</v>
+        <v>0.01166231968967366</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1712,16 +1704,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.384</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.1732016666666667</v>
+        <v>-0.1046600476190477</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.09960550400337129</v>
+        <v>-0.1117084858212949</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.07359616266329541</v>
+        <v>0.007048438202247209</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1729,16 +1721,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.388</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.159731</v>
+        <v>-0.1075911428571429</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.1000291495996629</v>
+        <v>-0.1120246043338685</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.05970185040033714</v>
+        <v>0.004433461476725534</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1746,16 +1738,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.392</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.143395380952381</v>
+        <v>-0.1077267142857144</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.1004527951959545</v>
+        <v>-0.112340722846442</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.04294258575642645</v>
+        <v>0.004614008560727662</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1763,16 +1755,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.396</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.1415306666666667</v>
+        <v>-0.1183322380952382</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.1008764407922461</v>
+        <v>-0.1126568413590156</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.04065422587442058</v>
+        <v>-0.00567539673622261</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1780,16 +1772,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.4</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.1252662857142857</v>
+        <v>-0.1111346190476191</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.1013000863885377</v>
+        <v>-0.1129729598715892</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.02396619932574801</v>
+        <v>0.001838340823970025</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1797,16 +1789,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.404</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.1212656666666666</v>
+        <v>-0.1174684761904763</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.1017237319848293</v>
+        <v>-0.1132890783841627</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.01954193468183731</v>
+        <v>-0.004179397806313531</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1814,16 +1806,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.408</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.1191340476190476</v>
+        <v>-0.1207988095238096</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.102147377581121</v>
+        <v>-0.1136051968967363</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.01698667003792666</v>
+        <v>-0.007193612627073284</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1831,16 +1823,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.412</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.1226648571428571</v>
+        <v>-0.1231298095238096</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.1025710231774126</v>
+        <v>-0.1139213154093099</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.02009383396544456</v>
+        <v>-0.009208494114499727</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1848,16 +1840,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.416</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.1260630952380952</v>
+        <v>-0.1277321428571429</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.1029946687737042</v>
+        <v>-0.1142374339218834</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-0.02306842646439103</v>
+        <v>-0.0134947089352595</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1865,16 +1857,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.42</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.1273978571428572</v>
+        <v>-0.1344687142857144</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.1034183143699958</v>
+        <v>-0.114553552434457</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-0.02397954277286138</v>
+        <v>-0.01991516185125741</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1882,16 +1874,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.424</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.1197292857142858</v>
+        <v>-0.1297390952380954</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.1038419599662874</v>
+        <v>-0.1148696709470306</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-0.01588732574799834</v>
+        <v>-0.0148694242910648</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1899,16 +1891,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.428</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.1140631428571429</v>
+        <v>-0.1324759523809525</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.104265605562579</v>
+        <v>-0.1151857894596041</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.009797537294563854</v>
+        <v>-0.01729016292134836</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1916,16 +1908,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.432</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.106863380952381</v>
+        <v>-0.1278743333333334</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.1046892511588706</v>
+        <v>-0.1155019079721777</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-0.002174129793510338</v>
+        <v>-0.01237242536115572</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1933,16 +1925,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.436</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.1021295714285715</v>
+        <v>-0.1272712380952382</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.1051128967551622</v>
+        <v>-0.1158180264847513</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0.002983325326590791</v>
+        <v>-0.01145321161048689</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1950,16 +1942,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.44</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.1076669047619048</v>
+        <v>-0.127332380952381</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1055365423514539</v>
+        <v>-0.1161341449973248</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>-0.00213036241045092</v>
+        <v>-0.0111982359550562</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1967,16 +1959,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.444</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.1096015238095238</v>
+        <v>-0.1263965714285715</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.1059601879477455</v>
+        <v>-0.1164502635098984</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>-0.003641335861778353</v>
+        <v>-0.009946307918673097</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1984,16 +1976,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.448</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.1114005238095238</v>
+        <v>-0.1225940952380953</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.1063838335440371</v>
+        <v>-0.116766382022472</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>-0.005016690265486692</v>
+        <v>-0.005827713215623351</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -2001,16 +1993,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.452</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.1093331904761905</v>
+        <v>-0.1205964761904763</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.1068074791403287</v>
+        <v>-0.1170825005350455</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>-0.002525711335861755</v>
+        <v>-0.003513975655430726</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2018,16 +2010,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.456</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.1094641428571428</v>
+        <v>-0.1173986190476191</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.1072311247366203</v>
+        <v>-0.1173986190476191</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>-0.002233018120522526</v>
+        <v>-1.387778780781446e-17</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2035,16 +2027,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.46</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.1039328571428572</v>
+        <v>-0.1195342380952382</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.1076547703329119</v>
+        <v>-0.1195342380952382</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0.003721913190054771</v>
+        <v>0</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2052,16 +2044,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.464</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.1031344285714286</v>
+        <v>-0.1290690476190477</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.1080784159292035</v>
+        <v>-0.1290690476190477</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0.004943987357774945</v>
+        <v>0</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2069,16 +2061,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.468</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.1065376190476191</v>
+        <v>-0.1368022380952382</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.1085020615254952</v>
+        <v>-0.1368022380952382</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>0.001964442477876083</v>
+        <v>0</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2086,16 +2078,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.472</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.09960152380952381</v>
+        <v>-0.1367346190476191</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.1089257071217868</v>
+        <v>-0.1367346190476191</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>0.009324183312262965</v>
+        <v>0</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2103,16 +2095,16 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.476</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.09973004761904761</v>
+        <v>-0.1394644761904763</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.1093493527180784</v>
+        <v>-0.1394644761904763</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>0.009619305099030778</v>
+        <v>0</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2120,16 +2112,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.48</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.1046600476190476</v>
+        <v>-0.1418594285714287</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.10977299831437</v>
+        <v>-0.1418594285714287</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>0.005112950695322374</v>
+        <v>0</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2137,16 +2129,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.484</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.1075911428571429</v>
+        <v>-0.1381282857142858</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.1101966439106616</v>
+        <v>-0.1381282857142858</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0.002605501053518741</v>
+        <v>0</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2154,16 +2146,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.488</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.1077267142857143</v>
+        <v>-0.1502650000000001</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.1106202895069532</v>
+        <v>-0.1502650000000001</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>0.002893575221238925</v>
+        <v>0</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2171,16 +2163,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.492</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-0.1183322380952382</v>
+        <v>-0.1529018095238096</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.1110439351032448</v>
+        <v>-0.1529018095238096</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>-0.007288302991993317</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2188,16 +2180,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.496</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.1111346190476191</v>
+        <v>-0.1504005238095239</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.1114675806995365</v>
+        <v>-0.1504005238095239</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>0.00033296165191736</v>
+        <v>0</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2205,428 +2197,20 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.5</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.1174684761904762</v>
+        <v>-0.1413574761904764</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.1118912262958281</v>
+        <v>-0.1413574761904764</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>-0.00557724989464814</v>
+        <v>0</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>-0.408</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>-0.1207988095238095</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>-0.1123148718921197</v>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>-0.00848393763168985</v>
-      </c>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="2" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>-0.412</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>-0.1231298095238095</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>-0.1127385174884113</v>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>-0.01039129203539822</v>
-      </c>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>-0.416</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>-0.1277321428571428</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>-0.1131621630847029</v>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>-0.01456997977243996</v>
-      </c>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="2" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>-0.1344687142857143</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>-0.1135858086809945</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>-0.02088290560471981</v>
-      </c>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="2" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>-0.424</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>-0.1297390952380953</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>-0.1140094542772861</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>-0.01572964096080917</v>
-      </c>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="2" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>-0.428</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>-0.1324759523809524</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>-0.1144330998735777</v>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>-0.01804285250737468</v>
-      </c>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="2" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>-0.432</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>-0.1278743333333334</v>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>-0.1148567454698693</v>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>-0.01301758786346402</v>
-      </c>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="2" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>-0.436</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>-0.1272712380952381</v>
-      </c>
-      <c r="C110" s="2" t="n">
-        <v>-0.115280391066161</v>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>-0.01199084702907714</v>
-      </c>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-      <c r="G110" s="2" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>-0.1273323809523809</v>
-      </c>
-      <c r="C111" s="2" t="n">
-        <v>-0.1157040366624526</v>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>-0.01162834428992837</v>
-      </c>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="2" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>-0.1263965714285714</v>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>-0.1161276822587442</v>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>-0.01026888916982722</v>
-      </c>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="2" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>-0.448</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>-0.1225940952380953</v>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>-0.1165513278550358</v>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>-0.00604276738305945</v>
-      </c>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="2" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>-0.452</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>-0.1205964761904762</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>-0.1169749734513274</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>-0.003621502739148783</v>
-      </c>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="2" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>-0.456</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>-0.1173986190476191</v>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>-0.117398619047619</v>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>-2.775557561562891e-17</v>
-      </c>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>-0.1195342380952381</v>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>-0.1195342380952381</v>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>-0.464</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>-0.1290690476190476</v>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>-0.1290690476190476</v>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="2" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>-0.468</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>-0.1368022380952381</v>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>-0.1368022380952381</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="2" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>-0.472</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>-0.136734619047619</v>
-      </c>
-      <c r="C119" s="2" t="n">
-        <v>-0.136734619047619</v>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-      <c r="G119" s="2" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>-0.476</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>-0.1394644761904762</v>
-      </c>
-      <c r="C120" s="2" t="n">
-        <v>-0.1394644761904762</v>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-      <c r="G120" s="2" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>-0.1418594285714286</v>
-      </c>
-      <c r="C121" s="2" t="n">
-        <v>-0.1418594285714286</v>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="2" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>-0.484</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>-0.1381282857142858</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>-0.1381282857142858</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="2" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>-0.488</v>
-      </c>
-      <c r="B123" s="2" t="n">
-        <v>-0.150265</v>
-      </c>
-      <c r="C123" s="2" t="n">
-        <v>-0.150265</v>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="2" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>-0.492</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>-0.1529018095238096</v>
-      </c>
-      <c r="C124" s="2" t="n">
-        <v>-0.1529018095238096</v>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
-      <c r="G124" s="2" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>-0.496</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>-0.150400523809524</v>
-      </c>
-      <c r="C125" s="2" t="n">
-        <v>-0.150400523809524</v>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="2" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>-0.1413574761904764</v>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>-0.1413574761904764</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
-      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2639,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2647,7 +2231,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="20" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -2665,58 +2249,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.112</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.04265928023598808</v>
+        <v>-0.02805895398608867</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.224</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.03165268141592917</v>
+        <v>-0.6715980165864103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.324</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.03730628318584059</v>
+        <v>-0.02043114901016582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.372</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.6778345874420566</v>
+        <v>0.004222511235955059</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.42</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.02397954277286138</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>-0.372</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>0.001964442477876083</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>-0.02088290560471981</v>
+        <v>-0.01991516185125741</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Jihong/DPV Analysis/Analysis Files/aptamer_sensor_3.xlsx
+++ b/Data/Jihong/DPV Analysis/Analysis Files/aptamer_sensor_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,12 +433,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="21" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="24" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="24" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="35" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="13" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="20" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -477,172 +477,184 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.08926407142857161</v>
+        <v>-0.06952666666666689</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.0892640714285716</v>
+        <v>-0.06952666666666689</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.387778780781446e-17</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.012</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.02805895398608867</v>
+        <v>-0.04286394630192482</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.1020021666666668</v>
+        <v>-0.1016315238095239</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.08958018994114517</v>
+        <v>-0.06984797922999009</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.01242197672552162</v>
+        <v>-0.03178354457953381</v>
       </c>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.052</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>-0.6715980165864103</v>
+        <v>-0.03288067781155006</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.111904380952381</v>
+        <v>-0.1130332380952381</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.08989630845371872</v>
+        <v>-0.07016929179331328</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.02200807249866228</v>
+        <v>-0.04286394630192482</v>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.112</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>-0.02043114901016582</v>
+        <v>-0.04006927507598769</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.118271380952381</v>
+        <v>-0.1116664761904762</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.09021242696629229</v>
+        <v>-0.0704906043566365</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.02805895398608867</v>
+        <v>-0.04117587183383971</v>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
       <c r="F5" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.224</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.004222511235955059</v>
+        <v>-0.6834629042553196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.1182696190476191</v>
+        <v>-0.1093334285714286</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.09052854547886587</v>
+        <v>-0.07081191691995969</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.0277410735687532</v>
+        <v>-0.03852151165146893</v>
       </c>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="n">
-        <v>-0.42</v>
+        <v>-0.324</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>-0.01991516185125741</v>
+        <v>-0.03216618541033436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.1156028571428572</v>
+        <v>-0.1061354761904763</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.09084466399143944</v>
+        <v>-0.07113322948328289</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.02475819315141776</v>
-      </c>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="n"/>
+        <v>-0.03500224670719337</v>
+      </c>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="n">
+        <v>-0.372</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>-0.007450196555217878</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.1136689523809525</v>
+        <v>-0.105466761904762</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.09116078250401299</v>
+        <v>-0.07145454204660609</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>-0.02250816987693947</v>
-      </c>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
-      <c r="G8" s="2" t="n"/>
+        <v>-0.03401221985815592</v>
+      </c>
+      <c r="E8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>-0.02543941854636597</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.1140668095238096</v>
+        <v>-0.102269761904762</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.09147690101658656</v>
+        <v>-0.07177585460992929</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-0.02258990850722306</v>
-      </c>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="n"/>
+        <v>-0.03049390729483271</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="n">
+        <v>-0.492</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>-0.01590048917748904</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.1148624761904763</v>
+        <v>-0.1046720952380953</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.09179301952916014</v>
+        <v>-0.07209716717325249</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.02306945666131617</v>
+        <v>-0.03257492806484283</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -650,16 +662,16 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.04000000000000001</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.1202615238095239</v>
+        <v>-0.1016013809523811</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.09210913804173371</v>
+        <v>-0.07241847973657568</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>-0.02815238576779019</v>
+        <v>-0.02918290121580537</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -667,16 +679,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.126458761904762</v>
+        <v>-0.1034637142857144</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.09242525655430726</v>
+        <v>-0.07273979229989889</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>-0.0340335053504547</v>
+        <v>-0.0307239219858155</v>
       </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
@@ -684,16 +696,16 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.1282588095238096</v>
+        <v>-0.104531142857143</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.09274137506688084</v>
+        <v>-0.07306110486322209</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>-0.03551743445692875</v>
+        <v>-0.03147003799392088</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -701,16 +713,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.1355279047619048</v>
+        <v>-0.1062630952380954</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.09305749357945441</v>
+        <v>-0.07338241742654529</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>-0.04247041118245042</v>
+        <v>-0.03288067781155006</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -718,16 +730,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.05600000000000001</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.1464647142857144</v>
+        <v>-0.1030682857142858</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.09337361209202796</v>
+        <v>-0.07370372998986849</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>-0.0530911021936864</v>
+        <v>-0.02936455572441729</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -735,16 +747,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.1632645238095239</v>
+        <v>-0.09787252380952388</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.09368973060460153</v>
+        <v>-0.07402504255319169</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.06957479320492235</v>
+        <v>-0.0238474812563322</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -752,16 +764,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.1771995238095239</v>
+        <v>-0.09833728571428579</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.09400584911717511</v>
+        <v>-0.07434635511651488</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.08319367469234881</v>
+        <v>-0.02399093059777091</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -769,16 +781,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.1933952857142858</v>
+        <v>-0.1058692857142858</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.09432196762974868</v>
+        <v>-0.07466766767983808</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.09907331808453715</v>
+        <v>-0.03120161803444771</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -786,16 +798,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.07200000000000001</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.2105980476190477</v>
+        <v>-0.1082664285714287</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.09463808614232225</v>
+        <v>-0.07498898024316129</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.1159599614767255</v>
+        <v>-0.03327744832826737</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -803,16 +815,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.07600000000000001</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.236732142857143</v>
+        <v>-0.1101300000000001</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.0949542046548958</v>
+        <v>-0.07531029280648449</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.1417779382022472</v>
+        <v>-0.03481970719351563</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -820,16 +832,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.2707310952380955</v>
+        <v>-0.1043303333333334</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.09527032316746938</v>
+        <v>-0.07563160536980769</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.1754607720706261</v>
+        <v>-0.02869872796352575</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -837,16 +849,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.312396285714286</v>
+        <v>-0.0941273333333334</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.09558644168004295</v>
+        <v>-0.07595291793313089</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.216809844034243</v>
+        <v>-0.01817441540020251</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -854,16 +866,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.08800000000000001</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.3563292380952384</v>
+        <v>-0.09785685714285722</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.09590256019261652</v>
+        <v>-0.07627423049645408</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.2604266779026219</v>
+        <v>-0.02158262664640313</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -871,16 +883,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.3991283809523812</v>
+        <v>-0.1014562380952382</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.09621867870519007</v>
+        <v>-0.07659554305977728</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.3029097022471912</v>
+        <v>-0.02486069503546087</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -888,16 +900,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.451464285714286</v>
+        <v>-0.1010588571428572</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.09653479721776365</v>
+        <v>-0.07691685562310048</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.3549294884965223</v>
+        <v>-0.02414200151975675</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -905,16 +917,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.4994625238095242</v>
+        <v>-0.1033962857142858</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.09685091573033722</v>
+        <v>-0.07723816818642368</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.4026116080791869</v>
+        <v>-0.02615811752786212</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -922,16 +934,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.5445284761904765</v>
+        <v>-0.1040678095238096</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.09716703424291079</v>
+        <v>-0.07755948074974689</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.4473614419475657</v>
+        <v>-0.0265083287740627</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -939,16 +951,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.5890645238095241</v>
+        <v>-0.1070036190476191</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.09748315275548436</v>
+        <v>-0.07788079331307009</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.4915813710540398</v>
+        <v>-0.02912282573454898</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -956,16 +968,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.6361998571428575</v>
+        <v>-0.118271380952381</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.09779927126805792</v>
+        <v>-0.07820210587639329</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.5384005858747997</v>
+        <v>-0.04006927507598769</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -973,16 +985,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.680797666666667</v>
+        <v>-0.1182696190476191</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.09811538978063149</v>
+        <v>-0.07852341843971648</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.5826822768860355</v>
+        <v>-0.03974620060790258</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -990,16 +1002,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.7260660000000003</v>
+        <v>-0.1156028571428572</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.09843150829320504</v>
+        <v>-0.07884473100303968</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.6276344917067953</v>
+        <v>-0.03675812613981753</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1007,16 +1019,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.7579263809523815</v>
+        <v>-0.1136689523809525</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.09874762680577862</v>
+        <v>-0.07916604356636288</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.6591787541466029</v>
+        <v>-0.03450290881458959</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1024,16 +1036,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.7706617619047624</v>
+        <v>-0.1140668095238096</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.09906374531835219</v>
+        <v>-0.07948735612968608</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.6715980165864103</v>
+        <v>-0.03457945339412355</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1041,16 +1053,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.7704625238095244</v>
+        <v>-0.1148624761904763</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.09937986383092576</v>
+        <v>-0.07980866869300929</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.6710826599785986</v>
+        <v>-0.03505380749746702</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1058,16 +1070,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.756065571428572</v>
+        <v>-0.1202615238095239</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.09969598234349933</v>
+        <v>-0.08012998125633249</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.6563695890850727</v>
+        <v>-0.04013154255319142</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1075,16 +1087,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.7235935238095242</v>
+        <v>-0.126458761904762</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.1000121008560729</v>
+        <v>-0.08045129381965568</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.6235814229534513</v>
+        <v>-0.04600746808510628</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1092,16 +1104,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.6830002857142859</v>
+        <v>-0.1282588095238096</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.1003282193686465</v>
+        <v>-0.08077260638297888</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.5826720663456395</v>
+        <v>-0.0474862031408307</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1109,16 +1121,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.6333991904761908</v>
+        <v>-0.1355279047619048</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.10064433788122</v>
+        <v>-0.08109391894630208</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.5327548525949707</v>
+        <v>-0.05443398581560274</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1126,16 +1138,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.5836040952380956</v>
+        <v>-0.1464647142857143</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.1009604563937936</v>
+        <v>-0.08141523150962528</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.4826436388443021</v>
+        <v>-0.06504948277608906</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1143,16 +1155,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.5355389523809526</v>
+        <v>-0.1632645238095239</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.1012765749063672</v>
+        <v>-0.08173654407294847</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.4342623774745855</v>
+        <v>-0.08152797973657544</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1160,16 +1172,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.4860741428571431</v>
+        <v>-0.1771995238095239</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.1015926934189407</v>
+        <v>-0.08205785663627169</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.3844814494382024</v>
+        <v>-0.09514166717325223</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1177,16 +1189,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.4298663333333336</v>
+        <v>-0.1933952857142858</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.1019088119315143</v>
+        <v>-0.08237916919959488</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.3279575214018193</v>
+        <v>-0.1110161165146909</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1194,16 +1206,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.3659971904761907</v>
+        <v>-0.2105980476190477</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.1022249304440879</v>
+        <v>-0.08270048176291808</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.2637722600321029</v>
+        <v>-0.1278975658561297</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1211,16 +1223,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.3069236190476193</v>
+        <v>-0.236732142857143</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.1025410489566614</v>
+        <v>-0.08302179432624128</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.2043825700909578</v>
+        <v>-0.1537103485309018</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1228,16 +1240,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.2611902857142859</v>
+        <v>-0.2707310952380955</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.102857167469235</v>
+        <v>-0.08334310688956448</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.1583331182450509</v>
+        <v>-0.187387988348531</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1245,16 +1257,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.2344612380952382</v>
+        <v>-0.3123962857142859</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.1031732859818086</v>
+        <v>-0.08366441945288768</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.1312879521134296</v>
+        <v>-0.2287318662613982</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1262,16 +1274,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.2120685238095239</v>
+        <v>-0.3563292380952383</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.1034894044943821</v>
+        <v>-0.08398573201621087</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.1085791193151418</v>
+        <v>-0.2723435060790275</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1279,16 +1291,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.1946016666666668</v>
+        <v>-0.3991283809523812</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.1038055230069557</v>
+        <v>-0.08430704457953409</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.09079614365971106</v>
+        <v>-0.3148213363728471</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1296,16 +1308,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.1732016666666668</v>
+        <v>-0.451464285714286</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.1041216415195293</v>
+        <v>-0.08462835714285728</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.06908002514713751</v>
+        <v>-0.3668359285714288</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1313,16 +1325,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.1597310000000001</v>
+        <v>-0.4994625238095242</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.1044377600321028</v>
+        <v>-0.08494966970618048</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.05529323996789728</v>
+        <v>-0.4145128541033437</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1330,16 +1342,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.1433953809523811</v>
+        <v>-0.5445284761904765</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.1047538785446764</v>
+        <v>-0.08527098226950368</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.03864150240770464</v>
+        <v>-0.4592574939209728</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1347,16 +1359,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.1415306666666668</v>
+        <v>-0.5890645238095241</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.10506999705725</v>
+        <v>-0.08559229483282688</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.03646066960941681</v>
+        <v>-0.5034722289766973</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1364,16 +1376,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.1252662857142858</v>
+        <v>-0.6361998571428575</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.1053861155698235</v>
+        <v>-0.08591360739615009</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.01988017014446226</v>
+        <v>-0.5502862497467075</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1381,16 +1393,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.1212656666666667</v>
+        <v>-0.6807976666666671</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.1057022340823971</v>
+        <v>-0.08623491995947327</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.01556343258426961</v>
+        <v>-0.5945627467071938</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1398,16 +1410,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.1191340476190477</v>
+        <v>-0.7260660000000004</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.1060183525949707</v>
+        <v>-0.08655623252279648</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.01311569502407701</v>
+        <v>-0.6395097674772039</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1415,16 +1427,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.1226648571428572</v>
+        <v>-0.7579263809523815</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.1063344711075442</v>
+        <v>-0.08687754508611968</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.01633038603531295</v>
+        <v>-0.6710488358662619</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1432,16 +1444,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.1260630952380953</v>
+        <v>-0.7706617619047625</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.1066505896201178</v>
+        <v>-0.08719885764944288</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.0194125056179775</v>
+        <v>-0.6834629042553196</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1449,16 +1461,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.1273978571428572</v>
+        <v>-0.7704625238095244</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.1069667081326914</v>
+        <v>-0.08752017021276608</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.02043114901016582</v>
+        <v>-0.6829423535967584</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1466,16 +1478,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.1197292857142858</v>
+        <v>-0.756065571428572</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.107282826645265</v>
+        <v>-0.08784148277608927</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.01244645906902085</v>
+        <v>-0.6682240886524827</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1483,16 +1495,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.1140631428571429</v>
+        <v>-0.7235935238095241</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.1075989451578385</v>
+        <v>-0.08816279533941247</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.006464197699304425</v>
+        <v>-0.6354307284701116</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1500,16 +1512,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.106863380952381</v>
+        <v>-0.6830002857142861</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.1079150636704121</v>
+        <v>-0.08848410790273567</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>0.001051682718031036</v>
+        <v>-0.5945161778115504</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1517,16 +1529,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.1021295714285715</v>
+        <v>-0.6333991904761908</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.1082311821829856</v>
+        <v>-0.08880542046605888</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>0.006101610754414136</v>
+        <v>-0.5445937700101319</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1534,16 +1546,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.1076669047619049</v>
+        <v>-0.5836040952380956</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.1085473006955592</v>
+        <v>-0.08912673302938208</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0.0008803959336543682</v>
+        <v>-0.4944773622087136</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1551,16 +1563,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.1096015238095239</v>
+        <v>-0.5355389523809527</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.1088634192081328</v>
+        <v>-0.08944804559270528</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.0007381046013911069</v>
+        <v>-0.4460909067882475</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1568,16 +1580,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.1114005238095239</v>
+        <v>-0.4860741428571431</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.1091795377207063</v>
+        <v>-0.08976935815602848</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.002220986088817517</v>
+        <v>-0.3963047847011146</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1585,16 +1597,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.1093331904761905</v>
+        <v>-0.4298663333333336</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.1094956562332799</v>
+        <v>-0.09009067071935167</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>0.0001624657570894195</v>
+        <v>-0.339775662613982</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1602,16 +1614,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.1094641428571429</v>
+        <v>-0.3659971904761908</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.1098117747458535</v>
+        <v>-0.09041198328267487</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0.0003476318887105923</v>
+        <v>-0.2755852071935159</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1619,16 +1631,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.1039328571428572</v>
+        <v>-0.3069236190476193</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.1101278932584271</v>
+        <v>-0.09073329584599807</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.006195036115569846</v>
+        <v>-0.2161903232016212</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1636,16 +1648,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.1031344285714287</v>
+        <v>-0.2611902857142859</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.1104440117710006</v>
+        <v>-0.09105460840932128</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0.007309583199571965</v>
+        <v>-0.1701356773049646</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1653,16 +1665,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.1065376190476191</v>
+        <v>-0.2344612380952382</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.1107601302835742</v>
+        <v>-0.09137592097264448</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0.004222511235955059</v>
+        <v>-0.1430853171225938</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1670,16 +1682,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.09960152380952386</v>
+        <v>-0.2120685238095239</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.1110762487961478</v>
+        <v>-0.09169723353596768</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0.0114747249866239</v>
+        <v>-0.1203712902735562</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1687,16 +1699,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.09973004761904766</v>
+        <v>-0.1946016666666668</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.1113923673087213</v>
+        <v>-0.09201854609929087</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0.01166231968967366</v>
+        <v>-0.1025831205673759</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1704,16 +1716,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.1046600476190477</v>
+        <v>-0.1732016666666668</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.1117084858212949</v>
+        <v>-0.09233985866261407</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0.007048438202247209</v>
+        <v>-0.08086180800405271</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1721,16 +1733,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.1075911428571429</v>
+        <v>-0.1597310000000001</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.1120246043338685</v>
+        <v>-0.09266117122593728</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>0.004433461476725534</v>
+        <v>-0.06706982877406284</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1738,16 +1750,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.1077267142857144</v>
+        <v>-0.1433953809523811</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.112340722846442</v>
+        <v>-0.09298248378926047</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0.004614008560727662</v>
+        <v>-0.05041289716312058</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1755,16 +1767,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.1183322380952382</v>
+        <v>-0.1415306666666668</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.1126568413590156</v>
+        <v>-0.09330379635258368</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.00567539673622261</v>
+        <v>-0.04822687031408313</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1772,16 +1784,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.1111346190476191</v>
+        <v>-0.1252662857142858</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.1129729598715892</v>
+        <v>-0.09362510891590686</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0.001838340823970025</v>
+        <v>-0.03164117679837894</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1789,16 +1801,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.1174684761904763</v>
+        <v>-0.1212656666666667</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.1132890783841627</v>
+        <v>-0.09394642147923007</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.004179397806313531</v>
+        <v>-0.02731924518743664</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1806,16 +1818,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.408</v>
+        <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.1207988095238096</v>
+        <v>-0.1191340476190477</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.1136051968967363</v>
+        <v>-0.09426773404255327</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.007193612627073284</v>
+        <v>-0.02486631357649442</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1823,16 +1835,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.412</v>
+        <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.1231298095238096</v>
+        <v>-0.1226648571428572</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.1139213154093099</v>
+        <v>-0.09458904660587647</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.009208494114499727</v>
+        <v>-0.02807581053698074</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1840,16 +1852,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.416</v>
+        <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.1277321428571429</v>
+        <v>-0.1260630952380953</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.1142374339218834</v>
+        <v>-0.09491035916919967</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-0.0134947089352595</v>
+        <v>-0.03115273606889564</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1857,16 +1869,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.42</v>
+        <v>-0.324</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.1344687142857144</v>
+        <v>-0.1273978571428572</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.114553552434457</v>
+        <v>-0.09523167173252287</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-0.01991516185125741</v>
+        <v>-0.03216618541033436</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1874,16 +1886,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.424</v>
+        <v>-0.328</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.1297390952380954</v>
+        <v>-0.1197292857142858</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.1148696709470306</v>
+        <v>-0.09555298429584608</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-0.0148694242910648</v>
+        <v>-0.02417630141843974</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1891,16 +1903,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.428</v>
+        <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.1324759523809525</v>
+        <v>-0.1140631428571429</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.1151857894596041</v>
+        <v>-0.09587429685916928</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.01729016292134836</v>
+        <v>-0.01818884599797367</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1908,16 +1920,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.432</v>
+        <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.1278743333333334</v>
+        <v>-0.106863380952381</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.1155019079721777</v>
+        <v>-0.09619560942249247</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-0.01237242536115572</v>
+        <v>-0.01066777152988857</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1925,16 +1937,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.436</v>
+        <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.1272712380952382</v>
+        <v>-0.1021295714285715</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.1158180264847513</v>
+        <v>-0.09651692198581567</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-0.01145321161048689</v>
+        <v>-0.005612649442755843</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1942,16 +1954,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.44</v>
+        <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.127332380952381</v>
+        <v>-0.1076669047619049</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1161341449973248</v>
+        <v>-0.09683823454913887</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>-0.0111982359550562</v>
+        <v>-0.010828670212766</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1959,16 +1971,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.444</v>
+        <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.1263965714285715</v>
+        <v>-0.1096015238095239</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.1164502635098984</v>
+        <v>-0.09715954711246207</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>-0.009946307918673097</v>
+        <v>-0.01244197669706183</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1976,16 +1988,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.448</v>
+        <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.1225940952380953</v>
+        <v>-0.1114005238095239</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.116766382022472</v>
+        <v>-0.09748085967578526</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>-0.005827713215623351</v>
+        <v>-0.0139196641337386</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1993,16 +2005,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.452</v>
+        <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.1205964761904763</v>
+        <v>-0.1093331904761905</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.1170825005350455</v>
+        <v>-0.09780217223910846</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>-0.003513975655430726</v>
+        <v>-0.01153101823708205</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2010,16 +2022,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.456</v>
+        <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.1173986190476191</v>
+        <v>-0.1094641428571429</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.1173986190476191</v>
+        <v>-0.09812348480243166</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>-1.387778780781446e-17</v>
+        <v>-0.01134065805471124</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2027,16 +2039,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.46</v>
+        <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.1195342380952382</v>
+        <v>-0.1039328571428572</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.1195342380952382</v>
+        <v>-0.09844479736575487</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0</v>
+        <v>-0.005488059777102344</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2044,16 +2056,16 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.464</v>
+        <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.1290690476190477</v>
+        <v>-0.1031344285714287</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.1290690476190477</v>
+        <v>-0.09876610992907807</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>0</v>
+        <v>-0.004368318642350585</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2061,16 +2073,16 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.468</v>
+        <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.1368022380952382</v>
+        <v>-0.1065376190476191</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.1368022380952382</v>
+        <v>-0.09908742249240127</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>0</v>
+        <v>-0.007450196555217878</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2078,16 +2090,16 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.472</v>
+        <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.1367346190476191</v>
+        <v>-0.09960152380952386</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.1367346190476191</v>
+        <v>-0.09940873505572446</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>0</v>
+        <v>-0.0001927887537993972</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2095,13 +2107,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.476</v>
+        <v>-0.38</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.1394644761904763</v>
+        <v>-0.09973004761904766</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.1394644761904763</v>
+        <v>-0.09973004761904766</v>
       </c>
       <c r="D96" s="2" t="n">
         <v>0</v>
@@ -2112,16 +2124,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.48</v>
+        <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.1418594285714287</v>
+        <v>-0.1046600476190477</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.1418594285714287</v>
+        <v>-0.1006599724310777</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>0</v>
+        <v>-0.004000075187969937</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2129,16 +2141,16 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.484</v>
+        <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.1381282857142858</v>
+        <v>-0.1075911428571429</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.1381282857142858</v>
+        <v>-0.1015898972431078</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>0</v>
+        <v>-0.006001245614035117</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2146,16 +2158,16 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.488</v>
+        <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.1502650000000001</v>
+        <v>-0.1077267142857144</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.1502650000000001</v>
+        <v>-0.1025198220551379</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>0</v>
+        <v>-0.005206892230576465</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2163,16 +2175,16 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.492</v>
+        <v>-0.396</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-0.1529018095238096</v>
+        <v>-0.1183322380952382</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.1529018095238096</v>
+        <v>-0.103449746867168</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>0</v>
+        <v>-0.01488249122807024</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2180,16 +2192,16 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.496</v>
+        <v>-0.4</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.1504005238095239</v>
+        <v>-0.1111346190476191</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.1504005238095239</v>
+        <v>-0.1043796716791981</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>0</v>
+        <v>-0.006754947368421096</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2197,20 +2209,428 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.5</v>
+        <v>-0.404</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.1413574761904764</v>
+        <v>-0.1174684761904763</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.1413574761904764</v>
+        <v>-0.1053095964912281</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>0</v>
+        <v>-0.01215887969924813</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>-0.408</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>-0.1207988095238096</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>-0.1062395213032582</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>-0.01455928822055139</v>
+      </c>
+      <c r="E103" s="2" t="n"/>
+      <c r="F103" s="2" t="n"/>
+      <c r="G103" s="2" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>-0.412</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>-0.1231298095238096</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>-0.1071694461152883</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>-0.01596036340852129</v>
+      </c>
+      <c r="E104" s="2" t="n"/>
+      <c r="F104" s="2" t="n"/>
+      <c r="G104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>-0.416</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>-0.1277321428571429</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>-0.1080993709273184</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>-0.01963277192982457</v>
+      </c>
+      <c r="E105" s="2" t="n"/>
+      <c r="F105" s="2" t="n"/>
+      <c r="G105" s="2" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>-0.1344687142857144</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>-0.1090292957393484</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>-0.02543941854636597</v>
+      </c>
+      <c r="E106" s="2" t="n"/>
+      <c r="F106" s="2" t="n"/>
+      <c r="G106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>-0.424</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>-0.1297390952380954</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>-0.1099592205513785</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>-0.01977987468671687</v>
+      </c>
+      <c r="E107" s="2" t="n"/>
+      <c r="F107" s="2" t="n"/>
+      <c r="G107" s="2" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>-0.428</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>-0.1324759523809525</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>-0.1108891453634086</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>-0.02158680701754391</v>
+      </c>
+      <c r="E108" s="2" t="n"/>
+      <c r="F108" s="2" t="n"/>
+      <c r="G108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>-0.432</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>-0.1278743333333334</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>-0.1118190701754387</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>-0.01605526315789475</v>
+      </c>
+      <c r="E109" s="2" t="n"/>
+      <c r="F109" s="2" t="n"/>
+      <c r="G109" s="2" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>-0.436</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>-0.1272712380952382</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>-0.1127489949874687</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>-0.01452224310776942</v>
+      </c>
+      <c r="E110" s="2" t="n"/>
+      <c r="F110" s="2" t="n"/>
+      <c r="G110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>-0.127332380952381</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>-0.1136789197994988</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>-0.01365346115288221</v>
+      </c>
+      <c r="E111" s="2" t="n"/>
+      <c r="F111" s="2" t="n"/>
+      <c r="G111" s="2" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>-0.444</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>-0.1263965714285715</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>-0.1146088446115289</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>-0.0117877268170426</v>
+      </c>
+      <c r="E112" s="2" t="n"/>
+      <c r="F112" s="2" t="n"/>
+      <c r="G112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>-0.448</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>-0.1225940952380953</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>-0.115538769423559</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>-0.007055325814536342</v>
+      </c>
+      <c r="E113" s="2" t="n"/>
+      <c r="F113" s="2" t="n"/>
+      <c r="G113" s="2" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>-0.452</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>-0.1205964761904763</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>-0.116468694235589</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>-0.004127781954887222</v>
+      </c>
+      <c r="E114" s="2" t="n"/>
+      <c r="F114" s="2" t="n"/>
+      <c r="G114" s="2" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>-0.456</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>-0.1173986190476191</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>-0.1173986190476191</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>-1.387778780781446e-17</v>
+      </c>
+      <c r="E115" s="2" t="n"/>
+      <c r="F115" s="2" t="n"/>
+      <c r="G115" s="2" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>-0.1195342380952382</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>-0.1195766969696971</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>4.245887445891716e-05</v>
+      </c>
+      <c r="E116" s="2" t="n"/>
+      <c r="F116" s="2" t="n"/>
+      <c r="G116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>-0.464</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>-0.1290690476190477</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>-0.121754774891775</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>-0.007314272727272697</v>
+      </c>
+      <c r="E117" s="2" t="n"/>
+      <c r="F117" s="2" t="n"/>
+      <c r="G117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>-0.468</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>-0.1368022380952382</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>-0.123932852813853</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>-0.0128693852813852</v>
+      </c>
+      <c r="E118" s="2" t="n"/>
+      <c r="F118" s="2" t="n"/>
+      <c r="G118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>-0.472</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>-0.1367346190476191</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>-0.1261109307359309</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>-0.01062368831168825</v>
+      </c>
+      <c r="E119" s="2" t="n"/>
+      <c r="F119" s="2" t="n"/>
+      <c r="G119" s="2" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>-0.476</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>-0.1394644761904763</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>-0.1282890086580089</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>-0.01117546753246745</v>
+      </c>
+      <c r="E120" s="2" t="n"/>
+      <c r="F120" s="2" t="n"/>
+      <c r="G120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>-0.1418594285714287</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>-0.1304670865800868</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>-0.01139234199134193</v>
+      </c>
+      <c r="E121" s="2" t="n"/>
+      <c r="F121" s="2" t="n"/>
+      <c r="G121" s="2" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>-0.484</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>-0.1381282857142858</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>-0.1326451645021647</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>-0.005483121212121161</v>
+      </c>
+      <c r="E122" s="2" t="n"/>
+      <c r="F122" s="2" t="n"/>
+      <c r="G122" s="2" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>-0.488</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>-0.1502650000000001</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>-0.1348232424242427</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>-0.01544175757575744</v>
+      </c>
+      <c r="E123" s="2" t="n"/>
+      <c r="F123" s="2" t="n"/>
+      <c r="G123" s="2" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>-0.492</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>-0.1529018095238096</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>-0.1370013203463206</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>-0.01590048917748904</v>
+      </c>
+      <c r="E124" s="2" t="n"/>
+      <c r="F124" s="2" t="n"/>
+      <c r="G124" s="2" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>-0.496</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>-0.1504005238095239</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>-0.1391793982683985</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>-0.01122112554112539</v>
+      </c>
+      <c r="E125" s="2" t="n"/>
+      <c r="F125" s="2" t="n"/>
+      <c r="G125" s="2" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>-0.1413574761904764</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>-0.1413574761904764</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2" t="n"/>
+      <c r="F126" s="2" t="n"/>
+      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2223,7 +2643,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2231,7 +2651,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="21" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
@@ -2249,42 +2669,66 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.012</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.02805895398608867</v>
+        <v>-0.04286394630192482</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.052</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.6715980165864103</v>
+        <v>-0.03288067781155006</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.112</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.02043114901016582</v>
+        <v>-0.04006927507598769</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.224</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.004222511235955059</v>
+        <v>-0.6834629042553196</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>-0.324</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>-0.03216618541033436</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>-0.372</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>-0.007450196555217878</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>-0.42</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>-0.01991516185125741</v>
+      <c r="B8" s="2" t="n">
+        <v>-0.02543941854636597</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>-0.492</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>-0.01590048917748904</v>
       </c>
     </row>
   </sheetData>
